--- a/Test Cases_Updated.xlsx
+++ b/Test Cases_Updated.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11273" uniqueCount="2446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11274" uniqueCount="2447">
   <si>
     <t>Continuum</t>
   </si>
@@ -19130,6 +19130,9 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>Testing 2</t>
   </si>
 </sst>
 </file>
@@ -19927,10 +19930,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -20275,10 +20278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20290,28 +20293,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="187" t="s">
+      <c r="A1" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="187"/>
-      <c r="C1" s="187"/>
-      <c r="D1" s="187"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="187" t="s">
+      <c r="A2" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="187"/>
-      <c r="C2" s="187"/>
-      <c r="D2" s="187"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="187" t="s">
+      <c r="A3" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="187"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
+      <c r="B3" s="188"/>
+      <c r="C3" s="188"/>
+      <c r="D3" s="188"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
@@ -20574,8 +20577,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="188" t="s">
+      <c r="C23" s="187" t="s">
         <v>2445</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="187" t="s">
+        <v>2446</v>
       </c>
     </row>
   </sheetData>
